--- a/packcompare_excel.xlsx
+++ b/packcompare_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alina/Documents/NREL/configcompare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A7E8FD-6238-EA4B-ABA8-A46368FFB342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC31E5-AD35-2746-A905-EED4C956D1F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{03F72AC0-FD2C-1F4A-8085-24DF08D35175}"/>
   </bookViews>
@@ -114,18 +114,6 @@
     <t># balancing circuits/pack</t>
   </si>
   <si>
-    <t>20s6p</t>
-  </si>
-  <si>
-    <t>20s7p</t>
-  </si>
-  <si>
-    <t>700-1022</t>
-  </si>
-  <si>
-    <t>540-1044</t>
-  </si>
-  <si>
     <t>480-1000</t>
   </si>
   <si>
@@ -135,15 +123,6 @@
     <t>DC pack compare:</t>
   </si>
   <si>
-    <t>1s117p</t>
-  </si>
-  <si>
-    <t>1s127p</t>
-  </si>
-  <si>
-    <t>1s136p</t>
-  </si>
-  <si>
     <t>35-51.1</t>
   </si>
   <si>
@@ -178,13 +157,34 @@
   </si>
   <si>
     <t>1s3p</t>
+  </si>
+  <si>
+    <t>1s116p</t>
+  </si>
+  <si>
+    <t>1s126p</t>
+  </si>
+  <si>
+    <t>1s135p</t>
+  </si>
+  <si>
+    <t>665-970.9</t>
+  </si>
+  <si>
+    <t>513-991.8</t>
+  </si>
+  <si>
+    <t>19s6p</t>
+  </si>
+  <si>
+    <t>19s7p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,14 +215,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,30 +539,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22C754C-FE40-F94B-AC88-CEC9D63C70E6}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>22</v>
       </c>
@@ -579,7 +581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -596,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -616,19 +618,19 @@
         <v>4.3</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>516.6</v>
+        <v>490.77</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J4">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -648,23 +650,23 @@
         <v>3.96</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>554.4</v>
+        <v>526.67999999999995</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J5">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" s="2" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -680,33 +682,33 @@
         <v>3.7</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>518</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>2800</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" t="s">
         <v>22</v>
       </c>
@@ -723,7 +725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -740,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -760,19 +762,19 @@
         <v>4.3</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>503.68</v>
+        <v>499.38</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -792,23 +794,23 @@
         <v>3.96</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>502.92</v>
+        <v>498.96</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J12">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="2" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
@@ -824,46 +826,46 @@
         <v>3.7</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>503.2</v>
+        <v>499.5</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J13">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>503.685</v>
@@ -871,7 +873,7 @@
       <c r="C17">
         <v>117</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>19.5694716242661</v>
       </c>
       <c r="E17">
@@ -881,9 +883,9 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>507.99</v>
@@ -891,7 +893,7 @@
       <c r="C18">
         <v>59</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>9.7847358121330696</v>
       </c>
       <c r="E18">
@@ -901,9 +903,9 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>503.685</v>
@@ -911,7 +913,7 @@
       <c r="C19">
         <v>39</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>6.5231572080887199</v>
       </c>
       <c r="E19">
@@ -921,9 +923,9 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>507.99</v>
@@ -931,7 +933,7 @@
       <c r="C20">
         <v>59</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>19.5694716242661</v>
       </c>
       <c r="E20">
@@ -941,9 +943,9 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>503.685</v>
@@ -951,7 +953,7 @@
       <c r="C21">
         <v>39</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>19.5694716242661</v>
       </c>
       <c r="E21">
@@ -961,34 +963,34 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>502.92</v>
@@ -996,7 +998,7 @@
       <c r="C25">
         <v>127</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>19.157088122605401</v>
       </c>
       <c r="E25">
@@ -1006,9 +1008,9 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>506.88</v>
@@ -1016,7 +1018,7 @@
       <c r="C26">
         <v>64</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>9.5785440613026793</v>
       </c>
       <c r="E26">
@@ -1026,9 +1028,9 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>510.84</v>
@@ -1036,7 +1038,7 @@
       <c r="C27">
         <v>43</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>6.38569604086846</v>
       </c>
       <c r="E27">
@@ -1046,9 +1048,9 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>506.88</v>
@@ -1056,7 +1058,7 @@
       <c r="C28">
         <v>64</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>19.157088122605401</v>
       </c>
       <c r="E28">
@@ -1066,9 +1068,9 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>510.84</v>
@@ -1076,7 +1078,7 @@
       <c r="C29">
         <v>43</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>19.157088122605401</v>
       </c>
       <c r="E29">
@@ -1086,34 +1088,34 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>503.2</v>
@@ -1131,9 +1133,9 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>503.2</v>
@@ -1151,9 +1153,9 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>510.6</v>
@@ -1161,7 +1163,7 @@
       <c r="C35">
         <v>46</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>6.6666666666666696</v>
       </c>
       <c r="E35">
@@ -1171,9 +1173,9 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>503.2</v>
@@ -1191,9 +1193,9 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>510.6</v>
